--- a/MakeExcelTool/7-29至8-04运营考勤排班导入.xlsx
+++ b/MakeExcelTool/7-29至8-04运营考勤排班导入.xlsx
@@ -17,10 +17,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
-    <numFmt formatCode="hh:mm" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <name val="Calibri"/>
@@ -72,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -80,13 +77,7 @@
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -443,7 +434,7 @@
           <t>徐浩峰</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
@@ -453,8 +444,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr"/>
-      <c r="F2" s="4" t="inlineStr"/>
+      <c r="E2" s="3" t="inlineStr"/>
+      <c r="F2" s="3" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -467,7 +458,7 @@
           <t>徐浩峰</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
@@ -477,12 +468,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E3" s="5" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>19:0</t>
         </is>
@@ -499,7 +490,7 @@
           <t>徐浩峰</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
@@ -509,12 +500,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E4" s="5" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F4" s="5" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
@@ -531,7 +522,7 @@
           <t>徐浩峰</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
@@ -541,12 +532,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E5" s="5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>150:00</t>
         </is>
@@ -563,7 +554,7 @@
           <t>徐浩峰</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
@@ -573,12 +564,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>08:000</t>
         </is>
       </c>
-      <c r="F6" s="5" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
@@ -595,7 +586,7 @@
           <t>徐浩峰</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
@@ -605,8 +596,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr"/>
-      <c r="F7" s="4" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
@@ -619,7 +610,7 @@
           <t>徐浩峰</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>2019-08-04</t>
         </is>
@@ -629,12 +620,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E8" s="5" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="F8" s="5" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -651,7 +642,7 @@
           <t>阳漫红</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
@@ -661,12 +652,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E9" s="5" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F9" s="5" t="inlineStr">
+      <c r="F9" s="2" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
@@ -683,7 +674,7 @@
           <t>阳漫红</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
@@ -693,8 +684,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr"/>
-      <c r="F10" s="4" t="inlineStr"/>
+      <c r="E10" s="3" t="inlineStr"/>
+      <c r="F10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -707,7 +698,7 @@
           <t>阳漫红</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
@@ -717,12 +708,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E11" s="5" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="F11" s="5" t="inlineStr">
+      <c r="F11" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -739,7 +730,7 @@
           <t>阳漫红</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
@@ -749,12 +740,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E12" s="5" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="F12" s="5" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -771,7 +762,7 @@
           <t>阳漫红</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
@@ -781,8 +772,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr"/>
-      <c r="F13" s="4" t="inlineStr"/>
+      <c r="E13" s="3" t="inlineStr"/>
+      <c r="F13" s="3" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
@@ -795,7 +786,7 @@
           <t>阳漫红</t>
         </is>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
@@ -805,12 +796,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E14" s="5" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F14" s="5" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
@@ -827,7 +818,7 @@
           <t>阳漫红</t>
         </is>
       </c>
-      <c r="C15" s="3" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>2019-08-04</t>
         </is>
@@ -837,8 +828,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr"/>
-      <c r="F15" s="4" t="inlineStr"/>
+      <c r="E15" s="3" t="inlineStr"/>
+      <c r="F15" s="3" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
@@ -851,7 +842,7 @@
           <t>徐巧敏</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
@@ -861,12 +852,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E16" s="5" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="F16" s="5" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -883,7 +874,7 @@
           <t>徐巧敏</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
@@ -893,8 +884,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
+      <c r="E17" s="3" t="inlineStr"/>
+      <c r="F17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
@@ -907,7 +898,7 @@
           <t>徐巧敏</t>
         </is>
       </c>
-      <c r="C18" s="3" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
@@ -917,12 +908,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E18" s="5" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F18" s="5" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>19:00</t>
         </is>
@@ -939,7 +930,7 @@
           <t>徐巧敏</t>
         </is>
       </c>
-      <c r="C19" s="3" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
@@ -949,8 +940,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
+      <c r="E19" s="3" t="inlineStr"/>
+      <c r="F19" s="3" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
@@ -963,7 +954,7 @@
           <t>徐巧敏</t>
         </is>
       </c>
-      <c r="C20" s="3" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
@@ -973,12 +964,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E20" s="5" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="F20" s="5" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -995,7 +986,7 @@
           <t>徐巧敏</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
@@ -1005,12 +996,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E21" s="5" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>14:00</t>
         </is>
       </c>
-      <c r="F21" s="5" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1027,7 +1018,7 @@
           <t>徐巧敏</t>
         </is>
       </c>
-      <c r="C22" s="3" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>2019-08-04</t>
         </is>
@@ -1037,12 +1028,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E22" s="5" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F22" s="5" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>15:00</t>
         </is>
@@ -1059,7 +1050,7 @@
           <t>洪国庭</t>
         </is>
       </c>
-      <c r="C23" s="3" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
@@ -1069,8 +1060,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E23" s="4" t="inlineStr"/>
-      <c r="F23" s="4" t="inlineStr"/>
+      <c r="E23" s="3" t="inlineStr"/>
+      <c r="F23" s="3" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1083,7 +1074,7 @@
           <t>洪国庭</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
@@ -1093,8 +1084,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr"/>
-      <c r="F24" s="4" t="inlineStr"/>
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
@@ -1107,7 +1098,7 @@
           <t>洪国庭</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
@@ -1117,12 +1108,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E25" s="5" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F25" s="5" t="inlineStr">
+      <c r="F25" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1139,7 +1130,7 @@
           <t>洪国庭</t>
         </is>
       </c>
-      <c r="C26" s="3" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
@@ -1149,8 +1140,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
+      <c r="E26" s="3" t="inlineStr"/>
+      <c r="F26" s="3" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
@@ -1163,7 +1154,7 @@
           <t>洪国庭</t>
         </is>
       </c>
-      <c r="C27" s="3" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
@@ -1173,12 +1164,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E27" s="5" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F27" s="5" t="inlineStr">
+      <c r="F27" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1195,7 +1186,7 @@
           <t>洪国庭</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
@@ -1205,8 +1196,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="4" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr"/>
+      <c r="F28" s="3" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -1219,7 +1210,7 @@
           <t>洪国庭</t>
         </is>
       </c>
-      <c r="C29" s="3" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>2019-08-04</t>
         </is>
@@ -1229,12 +1220,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E29" s="5" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F29" s="5" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1251,7 +1242,7 @@
           <t>彭晓敏</t>
         </is>
       </c>
-      <c r="C30" s="3" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
@@ -1261,8 +1252,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E30" s="4" t="inlineStr"/>
-      <c r="F30" s="4" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
@@ -1275,7 +1266,7 @@
           <t>彭晓敏</t>
         </is>
       </c>
-      <c r="C31" s="3" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
@@ -1285,8 +1276,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E31" s="4" t="inlineStr"/>
-      <c r="F31" s="4" t="inlineStr"/>
+      <c r="E31" s="3" t="inlineStr"/>
+      <c r="F31" s="3" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
@@ -1299,7 +1290,7 @@
           <t>彭晓敏</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
@@ -1309,8 +1300,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E32" s="4" t="inlineStr"/>
-      <c r="F32" s="4" t="inlineStr"/>
+      <c r="E32" s="3" t="inlineStr"/>
+      <c r="F32" s="3" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
@@ -1323,7 +1314,7 @@
           <t>彭晓敏</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
@@ -1333,8 +1324,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E33" s="4" t="inlineStr"/>
-      <c r="F33" s="4" t="inlineStr"/>
+      <c r="E33" s="3" t="inlineStr"/>
+      <c r="F33" s="3" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -1347,7 +1338,7 @@
           <t>彭晓敏</t>
         </is>
       </c>
-      <c r="C34" s="3" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
@@ -1357,8 +1348,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E34" s="4" t="inlineStr"/>
-      <c r="F34" s="4" t="inlineStr"/>
+      <c r="E34" s="3" t="inlineStr"/>
+      <c r="F34" s="3" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -1371,7 +1362,7 @@
           <t>彭晓敏</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
@@ -1381,8 +1372,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E35" s="4" t="inlineStr"/>
-      <c r="F35" s="4" t="inlineStr"/>
+      <c r="E35" s="3" t="inlineStr"/>
+      <c r="F35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -1395,7 +1386,7 @@
           <t>彭晓敏</t>
         </is>
       </c>
-      <c r="C36" s="3" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>2019-08-04</t>
         </is>
@@ -1405,8 +1396,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E36" s="4" t="inlineStr"/>
-      <c r="F36" s="4" t="inlineStr"/>
+      <c r="E36" s="3" t="inlineStr"/>
+      <c r="F36" s="3" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -1419,7 +1410,7 @@
           <t>陈林国</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
@@ -1429,12 +1420,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E37" s="5" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F37" s="5" t="inlineStr">
+      <c r="F37" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1451,7 +1442,7 @@
           <t>陈林国</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
@@ -1461,8 +1452,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E38" s="4" t="inlineStr"/>
-      <c r="F38" s="4" t="inlineStr"/>
+      <c r="E38" s="3" t="inlineStr"/>
+      <c r="F38" s="3" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -1475,7 +1466,7 @@
           <t>陈林国</t>
         </is>
       </c>
-      <c r="C39" s="3" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
@@ -1485,8 +1476,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr"/>
-      <c r="F39" s="4" t="inlineStr"/>
+      <c r="E39" s="3" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -1499,7 +1490,7 @@
           <t>陈林国</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
@@ -1509,12 +1500,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E40" s="5" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F40" s="5" t="inlineStr">
+      <c r="F40" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1531,7 +1522,7 @@
           <t>陈林国</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
@@ -1541,8 +1532,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E41" s="4" t="inlineStr"/>
-      <c r="F41" s="4" t="inlineStr"/>
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -1555,7 +1546,7 @@
           <t>陈林国</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
@@ -1565,12 +1556,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E42" s="5" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F42" s="5" t="inlineStr">
+      <c r="F42" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1587,7 +1578,7 @@
           <t>陈林国</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>2019-08-04</t>
         </is>
@@ -1597,8 +1588,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E43" s="4" t="inlineStr"/>
-      <c r="F43" s="4" t="inlineStr"/>
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -1611,7 +1602,7 @@
           <t>卢水生</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
@@ -1621,12 +1612,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E44" s="5" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F44" s="5" t="inlineStr">
+      <c r="F44" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1643,7 +1634,7 @@
           <t>卢水生</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
@@ -1653,8 +1644,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr"/>
-      <c r="F45" s="4" t="inlineStr"/>
+      <c r="E45" s="3" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -1667,7 +1658,7 @@
           <t>卢水生</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
@@ -1677,12 +1668,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E46" s="5" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F46" s="5" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1699,7 +1690,7 @@
           <t>卢水生</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
@@ -1709,12 +1700,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E47" s="5" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F47" s="5" t="inlineStr">
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1731,7 +1722,7 @@
           <t>卢水生</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" s="2" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
@@ -1741,8 +1732,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr"/>
-      <c r="F48" s="4" t="inlineStr"/>
+      <c r="E48" s="3" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -1755,7 +1746,7 @@
           <t>卢水生</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C49" s="2" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
@@ -1765,12 +1756,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E49" s="5" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="F49" s="5" t="inlineStr">
+      <c r="F49" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1787,7 +1778,7 @@
           <t>卢水生</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr">
         <is>
           <t>2019-08-04</t>
         </is>
@@ -1797,12 +1788,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E50" s="5" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="F50" s="5" t="inlineStr">
+      <c r="F50" s="2" t="inlineStr">
         <is>
           <t>21:00</t>
         </is>
@@ -1819,7 +1810,7 @@
           <t>胡正雷</t>
         </is>
       </c>
-      <c r="C51" s="3" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
@@ -1829,12 +1820,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E51" s="5" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="F51" s="5" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -1851,7 +1842,7 @@
           <t>胡正雷</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
@@ -1861,8 +1852,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E52" s="4" t="inlineStr"/>
-      <c r="F52" s="4" t="inlineStr"/>
+      <c r="E52" s="3" t="inlineStr"/>
+      <c r="F52" s="3" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -1875,7 +1866,7 @@
           <t>胡正雷</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
@@ -1885,12 +1876,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -1907,7 +1898,7 @@
           <t>胡正雷</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
@@ -1917,12 +1908,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -1939,7 +1930,7 @@
           <t>胡正雷</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
@@ -1949,12 +1940,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E55" s="5" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="F55" s="5" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -1971,7 +1962,7 @@
           <t>胡正雷</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
@@ -1981,12 +1972,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E56" s="5" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="F56" s="5" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2003,7 +1994,7 @@
           <t>胡正雷</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>2019-08-04</t>
         </is>
@@ -2013,12 +2004,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E57" s="5" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="F57" s="5" t="inlineStr">
+      <c r="F57" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2035,7 +2026,7 @@
           <t>邓平</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>2019-07-29</t>
         </is>
@@ -2045,12 +2036,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="F58" s="5" t="inlineStr">
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2067,7 +2058,7 @@
           <t>邓平</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>2019-07-30</t>
         </is>
@@ -2077,8 +2068,8 @@
           <t>休息</t>
         </is>
       </c>
-      <c r="E59" s="4" t="inlineStr"/>
-      <c r="F59" s="4" t="inlineStr"/>
+      <c r="E59" s="3" t="inlineStr"/>
+      <c r="F59" s="3" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -2091,7 +2082,7 @@
           <t>邓平</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>2019-07-31</t>
         </is>
@@ -2101,12 +2092,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr">
+      <c r="F60" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2123,7 +2114,7 @@
           <t>邓平</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>2019-08-01</t>
         </is>
@@ -2133,12 +2124,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr">
+      <c r="F61" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2155,7 +2146,7 @@
           <t>邓平</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="C62" s="2" t="inlineStr">
         <is>
           <t>2019-08-02</t>
         </is>
@@ -2165,12 +2156,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E62" s="5" t="inlineStr">
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="F62" s="5" t="inlineStr">
+      <c r="F62" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2187,7 +2178,7 @@
           <t>邓平</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
+      <c r="C63" s="2" t="inlineStr">
         <is>
           <t>2019-08-03</t>
         </is>
@@ -2197,12 +2188,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E63" s="5" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="F63" s="5" t="inlineStr">
+      <c r="F63" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2219,7 +2210,7 @@
           <t>邓平</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>2019-08-04</t>
         </is>
@@ -2229,12 +2220,12 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E64" s="5" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>11:00</t>
         </is>
       </c>
-      <c r="F64" s="5" t="inlineStr">
+      <c r="F64" s="2" t="inlineStr">
         <is>
           <t>22:30</t>
         </is>
@@ -2245,7 +2236,9 @@
     <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="D2:D64" type="list">
       <formula1>"年假,工作,休息,入离职缺勤,培训,病假,医疗期,事假,婚假,产假,产检,哺乳假,丧假"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" operator="equal" showErrorMessage="1" showInputMessage="1" sqref="E2:F64" type="list"/>
+    <dataValidation allowBlank="1" operator="equal" showErrorMessage="1" showInputMessage="1" sqref="E2:F64" type="list">
+      <formula1>"06:00,06:30,07:00,07:30,08:00,08:30,09:00,09:30,10:00,10:30,11:00,11:30,12:00,12:30,13:00,13:30,14:00,14:30,15:00,15:30,16:00,16:30,17:00,17:30,18:00,18:30,19:00,19:30,20:00,20:30,21:00,21:30,22:00,22:30,23:00,23:30"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/MakeExcelTool/7-29至8-04运营考勤排班导入.xlsx
+++ b/MakeExcelTool/7-29至8-04运营考勤排班导入.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
+          <t>年假</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr"/>
@@ -620,9 +620,9 @@
           <t>工作</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>14:00</t>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>14:00:</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>休息</t>
+          <t>病假</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr"/>
@@ -1105,19 +1105,11 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>工作</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>08:00</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>21:00</t>
-        </is>
-      </c>
+          <t>丧假</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr"/>
+      <c r="F25" s="3" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
@@ -2232,12 +2224,9 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation allowBlank="0" showErrorMessage="1" showInputMessage="1" sqref="D2:D64" type="list">
       <formula1>"年假,工作,休息,入离职缺勤,培训,病假,医疗期,事假,婚假,产假,产检,哺乳假,丧假"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" operator="equal" showErrorMessage="1" showInputMessage="1" sqref="E2:F64" type="list">
-      <formula1>"06:00,06:30,07:00,07:30,08:00,08:30,09:00,09:30,10:00,10:30,11:00,11:30,12:00,12:30,13:00,13:30,14:00,14:30,15:00,15:30,16:00,16:30,17:00,17:30,18:00,18:30,19:00,19:30,20:00,20:30,21:00,21:30,22:00,22:30,23:00,23:30"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
